--- a/execltojava/数据结构.xlsx
+++ b/execltojava/数据结构.xlsx
@@ -6576,17 +6576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专栏内容
-column_cotent</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan lan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nei rong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容id</t>
     <rPh sb="0" eb="1">
       <t>nei rong</t>
@@ -9091,6 +9080,17 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>zhang dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏内容
+column_content</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan lan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei rong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9836,8 +9836,8 @@
   <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J135" sqref="J135"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10160,7 +10160,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="34"/>
       <c r="K15" s="32" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -10189,7 +10189,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>162</v>
@@ -10205,10 +10205,10 @@
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="22" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>179</v>
@@ -10230,7 +10230,7 @@
         <v>538</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -10319,13 +10319,13 @@
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>984</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="E24" s="20" t="s">
         <v>985</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>986</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -10338,13 +10338,13 @@
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="22" t="s">
+        <v>989</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>990</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="E25" s="20" t="s">
         <v>991</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>992</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -10352,7 +10352,7 @@
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
       <c r="K25" s="32" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -10491,7 +10491,7 @@
       <c r="I32" s="33"/>
       <c r="J32" s="34"/>
       <c r="K32" s="32" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -10631,10 +10631,10 @@
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
       <c r="C40" s="22" t="s">
+        <v>994</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>995</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>996</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>30</v>
@@ -10683,7 +10683,7 @@
       <c r="I42" s="33"/>
       <c r="J42" s="34"/>
       <c r="K42" s="32" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -10755,7 +10755,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>38</v>
@@ -10887,7 +10887,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
       <c r="K52" s="17" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -10994,7 +10994,7 @@
         <v>171</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>13</v>
@@ -11043,7 +11043,7 @@
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
       <c r="K60" s="17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -11106,7 +11106,7 @@
     <row r="64" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="31"/>
       <c r="B64" s="32" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>579</v>
@@ -11340,16 +11340,16 @@
     <row r="76" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="31"/>
       <c r="B76" s="32" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>151</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
@@ -11362,10 +11362,10 @@
       <c r="A77" s="31"/>
       <c r="B77" s="31"/>
       <c r="C77" s="20" t="s">
+        <v>980</v>
+      </c>
+      <c r="D77" s="20" t="s">
         <v>981</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>982</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>566</v>
@@ -11428,10 +11428,10 @@
         <v>151</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -11782,7 +11782,7 @@
         <v>597</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F97" s="33" t="s">
         <v>38</v>
@@ -11988,7 +11988,7 @@
         <v>597</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F107" s="21" t="s">
         <v>38</v>
@@ -12196,7 +12196,7 @@
         <v>618</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F117" s="33" t="s">
         <v>38</v>
@@ -12526,7 +12526,7 @@
         <v>618</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -12602,7 +12602,7 @@
       <c r="A137" s="31"/>
       <c r="B137" s="31"/>
       <c r="C137" s="22" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D137" s="20" t="s">
         <v>626</v>
@@ -12625,10 +12625,10 @@
       <c r="A138" s="31"/>
       <c r="B138" s="31"/>
       <c r="C138" s="22" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E138" s="20" t="s">
         <v>566</v>
@@ -12956,10 +12956,10 @@
       <c r="A155" s="31"/>
       <c r="B155" s="31"/>
       <c r="C155" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D155" s="20" t="s">
         <v>1020</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>1021</v>
       </c>
       <c r="E155" s="20" t="s">
         <v>552</v>
@@ -13282,13 +13282,13 @@
     <row r="172" spans="1:11" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="31"/>
       <c r="B172" s="32" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C172" s="20" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D172" s="20" t="s">
         <v>1143</v>
-      </c>
-      <c r="D172" s="20" t="s">
-        <v>1144</v>
       </c>
       <c r="E172" s="20" t="s">
         <v>11</v>
@@ -13309,7 +13309,7 @@
         <v>192</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E173" s="20" t="s">
         <v>11</v>
@@ -13330,7 +13330,7 @@
         <v>464</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E174" s="20" t="s">
         <v>11</v>
@@ -13348,13 +13348,13 @@
       <c r="A175" s="31"/>
       <c r="B175" s="31"/>
       <c r="C175" s="20" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D175" s="20" t="s">
         <v>746</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -13381,7 +13381,7 @@
       <c r="I176" s="33"/>
       <c r="J176" s="33"/>
       <c r="K176" s="32" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="177" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -13625,7 +13625,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
@@ -13678,10 +13678,10 @@
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="20" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>11</v>
@@ -13880,7 +13880,7 @@
         <v>635</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -13899,7 +13899,7 @@
         <v>618</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -14055,7 +14055,7 @@
         <v>635</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -14296,7 +14296,7 @@
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="26" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>156</v>
@@ -14350,7 +14350,7 @@
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
       <c r="K39" s="43" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14430,7 +14430,7 @@
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
       <c r="K43" s="32" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14478,7 +14478,7 @@
         <v>234</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>552</v>
@@ -14497,7 +14497,7 @@
         <v>62</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>552</v>
@@ -14516,7 +14516,7 @@
         <v>63</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>552</v>
@@ -14654,7 +14654,7 @@
         <v>635</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -14667,7 +14667,7 @@
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="26" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>156</v>
@@ -14724,10 +14724,10 @@
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
       <c r="C59" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>150</v>
@@ -14743,10 +14743,10 @@
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>150</v>
@@ -14762,10 +14762,10 @@
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
       <c r="C61" s="26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>150</v>
@@ -14905,7 +14905,7 @@
         <v>618</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -14956,7 +14956,7 @@
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="26" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>585</v>
@@ -15040,7 +15040,7 @@
         <v>635</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -15053,10 +15053,10 @@
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
       <c r="C76" s="26" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>566</v>
@@ -15215,7 +15215,7 @@
         <v>618</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -15234,7 +15234,7 @@
         <v>635</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -15280,7 +15280,7 @@
       <c r="I87" s="33"/>
       <c r="J87" s="33"/>
       <c r="K87" s="32" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15396,7 +15396,7 @@
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
       <c r="K93" s="32" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15910,7 +15910,7 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="32" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15923,7 +15923,7 @@
         <v>666</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -16199,7 +16199,7 @@
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
       <c r="K29" s="32" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -16262,7 +16262,7 @@
     <row r="33" spans="1:11" s="35" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="32" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>10</v>
@@ -16290,7 +16290,7 @@
         <v>635</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -16303,10 +16303,10 @@
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="26" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>11</v>
@@ -16322,10 +16322,10 @@
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>1090</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>1091</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>11</v>
@@ -16347,7 +16347,7 @@
         <v>597</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -16360,10 +16360,10 @@
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
       <c r="C38" s="26" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>150</v>
@@ -16699,7 +16699,7 @@
         <v>666</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
@@ -16809,10 +16809,10 @@
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
       <c r="C61" s="20" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>163</v>
@@ -16861,7 +16861,7 @@
       <c r="I63" s="33"/>
       <c r="J63" s="33"/>
       <c r="K63" s="32" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -16941,7 +16941,7 @@
       <c r="I67" s="33"/>
       <c r="J67" s="33"/>
       <c r="K67" s="32" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -17409,16 +17409,16 @@
     <row r="92" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
       <c r="B92" s="32" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -17426,7 +17426,7 @@
       <c r="I92" s="33"/>
       <c r="J92" s="33"/>
       <c r="K92" s="32" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -17439,7 +17439,7 @@
         <v>786</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -17447,20 +17447,20 @@
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
       <c r="K93" s="32" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="31"/>
       <c r="C94" s="26" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D94" s="26" t="s">
         <v>1043</v>
       </c>
-      <c r="D94" s="26" t="s">
-        <v>1044</v>
-      </c>
       <c r="E94" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -17468,7 +17468,7 @@
       <c r="I94" s="33"/>
       <c r="J94" s="33"/>
       <c r="K94" s="32" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -17481,7 +17481,7 @@
         <v>585</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -17496,13 +17496,13 @@
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
       <c r="C96" s="26" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D96" s="26" t="s">
         <v>1080</v>
       </c>
-      <c r="D96" s="26" t="s">
-        <v>1081</v>
-      </c>
       <c r="E96" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -17510,20 +17510,20 @@
       <c r="I96" s="33"/>
       <c r="J96" s="33"/>
       <c r="K96" s="32" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31"/>
       <c r="B97" s="31"/>
       <c r="C97" s="26" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -17531,20 +17531,20 @@
       <c r="I97" s="33"/>
       <c r="J97" s="33"/>
       <c r="K97" s="32" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="31"/>
       <c r="B98" s="31"/>
       <c r="C98" s="26" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -17552,17 +17552,17 @@
       <c r="I98" s="33"/>
       <c r="J98" s="33"/>
       <c r="K98" s="32" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31"/>
       <c r="B99" s="31"/>
       <c r="C99" s="26" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D99" s="26" t="s">
         <v>1049</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>1050</v>
       </c>
       <c r="E99" s="20" t="s">
         <v>11</v>
@@ -17584,7 +17584,7 @@
         <v>635</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -17597,10 +17597,10 @@
       <c r="A101" s="31"/>
       <c r="B101" s="31"/>
       <c r="C101" s="26" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D101" s="26" t="s">
         <v>1075</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>1076</v>
       </c>
       <c r="E101" s="26" t="s">
         <v>26</v>
@@ -17611,20 +17611,20 @@
       <c r="I101" s="33"/>
       <c r="J101" s="33"/>
       <c r="K101" s="32" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31"/>
       <c r="B102" s="31"/>
       <c r="C102" s="26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D102" s="26" t="s">
         <v>1057</v>
       </c>
-      <c r="D102" s="26" t="s">
-        <v>1058</v>
-      </c>
       <c r="E102" s="26" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -17632,17 +17632,17 @@
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
       <c r="K102" s="32" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31"/>
       <c r="B103" s="31"/>
       <c r="C103" s="26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D103" s="26" t="s">
         <v>1059</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>1060</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>11</v>
@@ -17660,13 +17660,13 @@
       <c r="A104" s="31"/>
       <c r="B104" s="31"/>
       <c r="C104" s="26" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D104" s="26" t="s">
         <v>1061</v>
       </c>
-      <c r="D104" s="26" t="s">
+      <c r="E104" s="20" t="s">
         <v>1062</v>
-      </c>
-      <c r="E104" s="20" t="s">
-        <v>1063</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -17916,7 +17916,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -17956,7 +17956,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -17977,7 +17977,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -18021,7 +18021,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -18042,7 +18042,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -18063,7 +18063,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="17" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -18073,7 +18073,7 @@
         <v>329</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>726</v>
@@ -18217,7 +18217,7 @@
         <v>739</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -18480,7 +18480,7 @@
         <v>618</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -18496,10 +18496,10 @@
         <v>307</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -18507,7 +18507,7 @@
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="17" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -18661,7 +18661,7 @@
         <v>597</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -18910,10 +18910,10 @@
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>1130</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>1131</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>598</v>
@@ -18994,7 +18994,7 @@
         <v>597</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -19031,10 +19031,10 @@
         <v>307</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -19042,7 +19042,7 @@
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
       <c r="K60" s="17" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -19217,7 +19217,7 @@
         <v>597</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -19507,7 +19507,7 @@
         <v>67</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>598</v>
@@ -19550,7 +19550,7 @@
         <v>770</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -19598,7 +19598,7 @@
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
       <c r="K88" s="32" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -19990,7 +19990,7 @@
         <v>618</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -20084,7 +20084,7 @@
         <v>521</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>132</v>
@@ -20217,13 +20217,13 @@
     <row r="120" spans="1:11" s="50" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="21"/>
       <c r="B120" s="51" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>566</v>
@@ -20232,7 +20232,7 @@
         <v>782</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
@@ -20243,10 +20243,10 @@
       <c r="A121" s="21"/>
       <c r="B121" s="51"/>
       <c r="C121" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>1124</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>1125</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>13</v>
@@ -20283,13 +20283,13 @@
       <c r="A123" s="21"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>1069</v>
-      </c>
       <c r="E123" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
@@ -20297,7 +20297,7 @@
       <c r="I123" s="21"/>
       <c r="J123" s="21"/>
       <c r="K123" s="51" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -20345,7 +20345,7 @@
         <v>67</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E126" s="20" t="s">
         <v>566</v>
@@ -20367,7 +20367,7 @@
         <v>186</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F127" s="21"/>
       <c r="G127" s="21"/>
@@ -20375,7 +20375,7 @@
       <c r="I127" s="21"/>
       <c r="J127" s="21"/>
       <c r="K127" s="51" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -20834,13 +20834,13 @@
       <c r="A150" s="31"/>
       <c r="B150" s="32"/>
       <c r="C150" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D150" s="22" t="s">
         <v>1065</v>
       </c>
-      <c r="D150" s="22" t="s">
+      <c r="E150" s="20" t="s">
         <v>1066</v>
-      </c>
-      <c r="E150" s="20" t="s">
-        <v>1067</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -20848,7 +20848,7 @@
       <c r="I150" s="33"/>
       <c r="J150" s="33"/>
       <c r="K150" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="151" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -21095,7 +21095,7 @@
         <v>618</v>
       </c>
       <c r="E163" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -22613,7 +22613,7 @@
         <v>618</v>
       </c>
       <c r="E241" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="33"/>
@@ -23091,8 +23091,8 @@
   <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23287,13 +23287,13 @@
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>964</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>966</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>965</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
@@ -23333,7 +23333,7 @@
         <v>618</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -23459,7 +23459,7 @@
     <row r="18" spans="1:11" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>847</v>
+        <v>1167</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>166</v>
@@ -23481,13 +23481,13 @@
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="26" t="s">
+        <v>847</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>849</v>
-      </c>
       <c r="E19" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -23499,7 +23499,7 @@
     <row r="20" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>579</v>
@@ -23508,7 +23508,7 @@
         <v>579</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>38</v>
@@ -23560,7 +23560,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -23605,10 +23605,10 @@
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>852</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>853</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>552</v>
@@ -23624,10 +23624,10 @@
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>854</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>855</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>554</v>
@@ -23643,10 +23643,10 @@
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>856</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>857</v>
       </c>
       <c r="E27" s="44" t="s">
         <v>170</v>
@@ -23681,13 +23681,13 @@
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="26" t="s">
+        <v>966</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>967</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>968</v>
-      </c>
       <c r="E29" s="20" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -23695,7 +23695,7 @@
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
       <c r="K29" s="32" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -23708,7 +23708,7 @@
         <v>829</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -23746,7 +23746,7 @@
         <v>618</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -23811,7 +23811,7 @@
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -23874,7 +23874,7 @@
     <row r="39" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>740</v>
@@ -23899,7 +23899,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>547</v>
@@ -23910,14 +23910,14 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
       <c r="K40" s="30" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="26" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>551</v>
@@ -23936,10 +23936,10 @@
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="26" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>1040</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>1041</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>554</v>
@@ -23955,10 +23955,10 @@
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>1113</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>1114</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>547</v>
@@ -23969,20 +23969,20 @@
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
       <c r="K43" s="30" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="26" t="s">
+        <v>847</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>849</v>
-      </c>
       <c r="E44" s="26" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
@@ -24032,16 +24032,16 @@
     <row r="47" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="30" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
@@ -24054,13 +24054,13 @@
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="26" t="s">
+        <v>847</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>849</v>
-      </c>
       <c r="E48" s="20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
@@ -24073,10 +24073,10 @@
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="26" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>566</v>
@@ -24098,7 +24098,7 @@
         <v>829</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
@@ -24106,17 +24106,17 @@
       <c r="I50" s="28"/>
       <c r="J50" s="28"/>
       <c r="K50" s="30" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="26" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E51" s="44" t="s">
         <v>170</v>
@@ -24169,7 +24169,7 @@
     <row r="54" spans="1:11" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="32" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>579</v>
@@ -24309,13 +24309,13 @@
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
       <c r="C61" s="26" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>788</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -24334,7 +24334,7 @@
         <v>597</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -24460,13 +24460,13 @@
     <row r="69" spans="1:11" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="31"/>
       <c r="B69" s="32" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C69" s="26" t="s">
         <v>1025</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="D69" s="26" t="s">
         <v>1026</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>1027</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>11</v>
@@ -24482,13 +24482,13 @@
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
       <c r="C70" s="26" t="s">
+        <v>847</v>
+      </c>
+      <c r="D70" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>849</v>
-      </c>
       <c r="E70" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -25067,7 +25067,7 @@
         <v>342</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>566</v>
@@ -25630,7 +25630,7 @@
         <v>363</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>566</v>
@@ -26073,7 +26073,7 @@
         <v>171</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>13</v>
@@ -26216,7 +26216,7 @@
         <v>173</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>547</v>
@@ -26237,7 +26237,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>613</v>
@@ -26256,7 +26256,7 @@
         <v>171</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>550</v>
@@ -26422,7 +26422,7 @@
         <v>175</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>602</v>
@@ -26441,7 +26441,7 @@
         <v>176</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>547</v>
@@ -26462,7 +26462,7 @@
         <v>497</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>547</v>
@@ -26502,7 +26502,7 @@
         <v>451</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>547</v>
@@ -26523,7 +26523,7 @@
         <v>450</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>547</v>
@@ -26544,7 +26544,7 @@
         <v>532</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>598</v>
@@ -26563,7 +26563,7 @@
         <v>171</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>550</v>
@@ -26584,7 +26584,7 @@
         <v>498</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>598</v>
@@ -26723,7 +26723,7 @@
         <v>171</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>550</v>
@@ -26835,7 +26835,7 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="17" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -26885,7 +26885,7 @@
         <v>34</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>613</v>
@@ -26904,7 +26904,7 @@
         <v>171</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>13</v>
@@ -27016,7 +27016,7 @@
     <row r="52" spans="1:11" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="32" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>600</v>
@@ -27033,7 +27033,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
       <c r="K52" s="17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -27083,7 +27083,7 @@
         <v>34</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>613</v>
@@ -27102,7 +27102,7 @@
         <v>107</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>598</v>
@@ -27121,7 +27121,7 @@
         <v>171</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>13</v>
@@ -27247,7 +27247,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
@@ -27556,13 +27556,13 @@
         <v>117</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>875</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>875</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>876</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
@@ -27578,10 +27578,10 @@
         <v>98</v>
       </c>
       <c r="D3" s="22" t="s">
+        <v>876</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>877</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>878</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -27597,10 +27597,10 @@
         <v>91</v>
       </c>
       <c r="D4" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>879</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>880</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
@@ -27618,10 +27618,10 @@
         <v>92</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -27639,10 +27639,10 @@
         <v>94</v>
       </c>
       <c r="D6" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>882</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>883</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -27658,7 +27658,7 @@
         <v>95</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>96</v>
@@ -27677,10 +27677,10 @@
         <v>97</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>885</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>886</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
@@ -27695,13 +27695,13 @@
         <v>52</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>875</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>875</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>876</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>38</v>
@@ -27740,7 +27740,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>552</v>
@@ -27970,7 +27970,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
       <c r="K22" s="32" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -28022,7 +28022,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>587</v>
@@ -28079,7 +28079,7 @@
         <v>109</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>566</v>
@@ -28128,7 +28128,7 @@
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
       <c r="K30" s="32" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -28197,7 +28197,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>566</v>
@@ -28220,7 +28220,7 @@
         <v>119</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>598</v>
@@ -28245,7 +28245,7 @@
         <v>68</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>598</v>
@@ -28268,7 +28268,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>598</v>
@@ -28287,13 +28287,13 @@
     <row r="38" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="32" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>598</v>
@@ -28319,7 +28319,7 @@
         <v>597</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>38</v>
@@ -28335,13 +28335,13 @@
     <row r="40" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="32" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>598</v>
@@ -28361,10 +28361,10 @@
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>897</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>898</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>598</v>
@@ -28412,7 +28412,7 @@
         <v>68</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>598</v>
@@ -28431,7 +28431,7 @@
         <v>121</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>598</v>
@@ -28450,7 +28450,7 @@
         <v>528</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>598</v>
@@ -28469,7 +28469,7 @@
         <v>531</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>598</v>
@@ -28488,7 +28488,7 @@
         <v>122</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>613</v>
@@ -28551,7 +28551,7 @@
         <v>68</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>598</v>
@@ -28570,7 +28570,7 @@
         <v>121</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>598</v>
@@ -28589,7 +28589,7 @@
         <v>528</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>598</v>
@@ -28608,7 +28608,7 @@
         <v>531</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>598</v>
@@ -28627,7 +28627,7 @@
         <v>122</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>613</v>
@@ -28730,7 +28730,7 @@
         <v>59</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>547</v>
@@ -28751,7 +28751,7 @@
         <v>60</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>752</v>
@@ -28789,7 +28789,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>602</v>
@@ -28808,7 +28808,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>552</v>
@@ -28827,7 +28827,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>552</v>
@@ -28846,7 +28846,7 @@
         <v>67</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>566</v>
@@ -28937,7 +28937,7 @@
     <row r="70" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="31"/>
       <c r="B70" s="32" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>579</v>
@@ -28962,7 +28962,7 @@
         <v>474</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>552</v>
@@ -29002,10 +29002,10 @@
         <v>473</v>
       </c>
       <c r="D73" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="E73" s="20" t="s">
         <v>908</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>909</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -29040,7 +29040,7 @@
         <v>477</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>552</v>
@@ -29059,7 +29059,7 @@
         <v>476</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>638</v>
@@ -29078,7 +29078,7 @@
         <v>478</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>638</v>
@@ -29097,7 +29097,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>552</v>
@@ -29116,7 +29116,7 @@
         <v>62</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>552</v>
@@ -29135,7 +29135,7 @@
         <v>63</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>552</v>
@@ -29154,7 +29154,7 @@
         <v>529</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>566</v>
@@ -29268,7 +29268,7 @@
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
       <c r="K86" s="32" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -29294,10 +29294,10 @@
       <c r="A88" s="31"/>
       <c r="B88" s="31"/>
       <c r="C88" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="D88" s="20" t="s">
         <v>916</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>917</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>547</v>
@@ -29308,7 +29308,7 @@
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
       <c r="K88" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -29318,7 +29318,7 @@
         <v>87</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>11</v>
@@ -29329,7 +29329,7 @@
       <c r="I89" s="33"/>
       <c r="J89" s="33"/>
       <c r="K89" s="32" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -29787,13 +29787,13 @@
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>921</v>
-      </c>
       <c r="E3" s="20" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -29812,7 +29812,7 @@
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>551</v>
@@ -29831,10 +29831,10 @@
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>923</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>924</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>571</v>
@@ -29852,10 +29852,10 @@
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>925</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>926</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>587</v>
@@ -29871,10 +29871,10 @@
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>927</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>928</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>660</v>
@@ -29893,7 +29893,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>571</v>
@@ -29911,10 +29911,10 @@
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>930</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>931</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>638</v>
@@ -29930,10 +29930,10 @@
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>932</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>933</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>571</v>
@@ -29949,10 +29949,10 @@
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="20" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>552</v>
@@ -29968,10 +29968,10 @@
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>552</v>
@@ -29987,10 +29987,10 @@
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>552</v>
@@ -30006,7 +30006,7 @@
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="20" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>835</v>
@@ -30039,7 +30039,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="25"/>
       <c r="K15" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -30102,13 +30102,13 @@
     <row r="19" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>598</v>
@@ -30131,7 +30131,7 @@
         <v>514</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>598</v>
@@ -30200,7 +30200,7 @@
         <v>462</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>638</v>
@@ -30218,10 +30218,10 @@
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="20" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>552</v>
@@ -30237,10 +30237,10 @@
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>552</v>
@@ -30256,10 +30256,10 @@
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>552</v>
@@ -30278,7 +30278,7 @@
         <v>80</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>571</v>
@@ -30299,7 +30299,7 @@
         <v>67</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>566</v>
@@ -30436,7 +30436,7 @@
       </c>
       <c r="J34" s="33"/>
       <c r="K34" s="32" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -30465,7 +30465,7 @@
         <v>86</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>552</v>
@@ -30484,7 +30484,7 @@
         <v>88</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>554</v>
@@ -30503,10 +30503,10 @@
         <v>59</v>
       </c>
       <c r="D38" s="22" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>1030</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>1031</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -30521,10 +30521,10 @@
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
       <c r="C39" s="20" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>552</v>
@@ -30540,10 +30540,10 @@
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
       <c r="C40" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>552</v>
@@ -30559,13 +30559,13 @@
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>1036</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>1037</v>
-      </c>
       <c r="E41" s="20" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -30578,13 +30578,13 @@
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="22" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D42" s="22" t="s">
         <v>1032</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>1033</v>
-      </c>
       <c r="E42" s="22" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -30600,7 +30600,7 @@
         <v>87</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>566</v>
@@ -30615,7 +30615,7 @@
       </c>
       <c r="J43" s="33"/>
       <c r="K43" s="32" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -30625,7 +30625,7 @@
         <v>80</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>571</v>
@@ -30646,7 +30646,7 @@
         <v>67</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>11</v>
@@ -30768,7 +30768,7 @@
         <v>431</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>566</v>
@@ -30819,7 +30819,7 @@
       <c r="I53" s="33"/>
       <c r="J53" s="33"/>
       <c r="K53" s="32" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -30829,7 +30829,7 @@
         <v>87</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>566</v>
@@ -30840,7 +30840,7 @@
       <c r="I54" s="33"/>
       <c r="J54" s="33"/>
       <c r="K54" s="32" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -30890,7 +30890,7 @@
         <v>572</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>574</v>
@@ -30993,7 +30993,7 @@
         <v>80</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E62" s="22" t="s">
         <v>571</v>
@@ -31014,7 +31014,7 @@
         <v>67</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>11</v>
@@ -31178,7 +31178,7 @@
         <v>86</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>552</v>
@@ -31197,7 +31197,7 @@
         <v>88</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>554</v>
@@ -31216,7 +31216,7 @@
         <v>87</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>11</v>
@@ -31239,7 +31239,7 @@
         <v>80</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E74" s="22" t="s">
         <v>571</v>
@@ -31257,10 +31257,10 @@
       <c r="A75" s="31"/>
       <c r="B75" s="31"/>
       <c r="C75" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D75" s="49" t="s">
         <v>1116</v>
-      </c>
-      <c r="D75" s="49" t="s">
-        <v>1117</v>
       </c>
       <c r="E75" s="49" t="s">
         <v>132</v>
@@ -31382,7 +31382,7 @@
         <v>487</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>566</v>
@@ -31443,7 +31443,7 @@
         <v>87</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>566</v>
@@ -31601,7 +31601,7 @@
         <v>86</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>552</v>
@@ -31732,10 +31732,10 @@
     <row r="99" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="31"/>
       <c r="B99" s="32" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>155</v>
@@ -31773,10 +31773,10 @@
       <c r="A101" s="31"/>
       <c r="B101" s="31"/>
       <c r="C101" s="20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D101" s="20" t="s">
         <v>1150</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>1151</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>11</v>
@@ -31808,7 +31808,7 @@
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
       <c r="K102" s="32" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -31871,7 +31871,7 @@
     <row r="106" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="31"/>
       <c r="B106" s="32" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C106" s="22" t="s">
         <v>148</v>
@@ -31888,7 +31888,7 @@
       <c r="I106" s="33"/>
       <c r="J106" s="33"/>
       <c r="K106" s="32" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -31898,7 +31898,7 @@
         <v>460</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E107" s="20" t="s">
         <v>566</v>
@@ -31913,13 +31913,13 @@
     <row r="108" spans="1:11" s="35" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="31"/>
       <c r="B108" s="32" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>192</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>11</v>
@@ -31937,10 +31937,10 @@
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="22" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>11</v>
@@ -31958,10 +31958,10 @@
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
       <c r="C110" s="22" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>11</v>
@@ -32019,7 +32019,7 @@
       <c r="A113" s="31"/>
       <c r="B113" s="31"/>
       <c r="C113" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D113" s="20" t="s">
         <v>582</v>
@@ -32060,10 +32060,10 @@
         <v>78</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -32081,7 +32081,7 @@
         <v>74</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E116" s="20" t="s">
         <v>552</v>
@@ -32100,7 +32100,7 @@
         <v>75</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>638</v>
@@ -32119,7 +32119,7 @@
         <v>465</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E118" s="36" t="s">
         <v>162</v>
@@ -32138,7 +32138,7 @@
         <v>466</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E119" s="22" t="s">
         <v>638</v>
@@ -32157,7 +32157,7 @@
         <v>61</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>552</v>
@@ -32176,7 +32176,7 @@
         <v>62</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>552</v>
@@ -32195,7 +32195,7 @@
         <v>63</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>552</v>
@@ -32233,10 +32233,10 @@
         <v>76</v>
       </c>
       <c r="D124" s="20" t="s">
+        <v>954</v>
+      </c>
+      <c r="E124" s="22" t="s">
         <v>955</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>956</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -32255,7 +32255,7 @@
         <v>838</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -32368,7 +32368,7 @@
         <v>474</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E131" s="20" t="s">
         <v>552</v>
@@ -32408,10 +32408,10 @@
         <v>473</v>
       </c>
       <c r="D133" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="E133" s="20" t="s">
         <v>908</v>
-      </c>
-      <c r="E133" s="20" t="s">
-        <v>909</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -32446,7 +32446,7 @@
         <v>477</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E135" s="20" t="s">
         <v>552</v>
@@ -32465,7 +32465,7 @@
         <v>476</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E136" s="20" t="s">
         <v>638</v>
@@ -32484,7 +32484,7 @@
         <v>478</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>638</v>
@@ -32503,7 +32503,7 @@
         <v>61</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E138" s="26" t="s">
         <v>552</v>
@@ -32521,7 +32521,7 @@
         <v>62</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E139" s="20" t="s">
         <v>552</v>
@@ -32539,7 +32539,7 @@
         <v>63</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E140" s="20" t="s">
         <v>552</v>
@@ -32646,7 +32646,7 @@
     <row r="146" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="31"/>
       <c r="B146" s="32" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>490</v>
@@ -32670,10 +32670,10 @@
       <c r="A147" s="31"/>
       <c r="B147" s="32"/>
       <c r="C147" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D147" s="49" t="s">
         <v>1116</v>
-      </c>
-      <c r="D147" s="49" t="s">
-        <v>1117</v>
       </c>
       <c r="E147" s="49" t="s">
         <v>132</v>
@@ -32697,7 +32697,7 @@
         <v>618</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -32732,7 +32732,7 @@
     <row r="150" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="31"/>
       <c r="B150" s="32" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>490</v>
@@ -32756,10 +32756,10 @@
       <c r="A151" s="31"/>
       <c r="B151" s="32"/>
       <c r="C151" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D151" s="49" t="s">
         <v>1116</v>
-      </c>
-      <c r="D151" s="49" t="s">
-        <v>1117</v>
       </c>
       <c r="E151" s="49" t="s">
         <v>132</v>
@@ -32783,7 +32783,7 @@
         <v>618</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
@@ -32856,13 +32856,13 @@
     <row r="156" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="31"/>
       <c r="B156" s="32" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C156" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D156" s="49" t="s">
         <v>1116</v>
-      </c>
-      <c r="D156" s="49" t="s">
-        <v>1117</v>
       </c>
       <c r="E156" s="49" t="s">
         <v>132</v>
@@ -32886,7 +32886,7 @@
         <v>618</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
@@ -32920,10 +32920,10 @@
       <c r="A159" s="31"/>
       <c r="B159" s="31"/>
       <c r="C159" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D159" s="49" t="s">
         <v>1116</v>
-      </c>
-      <c r="D159" s="49" t="s">
-        <v>1117</v>
       </c>
       <c r="E159" s="49" t="s">
         <v>132</v>
@@ -32980,7 +32980,7 @@
         <v>262</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E162" s="26" t="s">
         <v>638</v>
@@ -33092,7 +33092,7 @@
     <row r="168" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="31"/>
       <c r="B168" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>579</v>
@@ -33114,10 +33114,10 @@
       <c r="A169" s="31"/>
       <c r="B169" s="31"/>
       <c r="C169" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D169" s="49" t="s">
         <v>1116</v>
-      </c>
-      <c r="D169" s="49" t="s">
-        <v>1117</v>
       </c>
       <c r="E169" s="49" t="s">
         <v>132</v>
@@ -33136,7 +33136,7 @@
         <v>272</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E170" s="26" t="s">
         <v>556</v>
@@ -33308,10 +33308,10 @@
       <c r="A179" s="31"/>
       <c r="B179" s="31"/>
       <c r="C179" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D179" s="49" t="s">
         <v>1116</v>
-      </c>
-      <c r="D179" s="49" t="s">
-        <v>1117</v>
       </c>
       <c r="E179" s="49" t="s">
         <v>132</v>
@@ -33330,7 +33330,7 @@
         <v>506</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E180" s="20" t="s">
         <v>562</v>
@@ -33423,7 +33423,7 @@
     <row r="185" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="31"/>
       <c r="B185" s="32" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C185" s="20" t="s">
         <v>579</v>
@@ -33448,7 +33448,7 @@
         <v>284</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E186" s="20" t="s">
         <v>552</v>
@@ -33467,7 +33467,7 @@
         <v>280</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E187" s="20" t="s">
         <v>638</v>
@@ -33486,7 +33486,7 @@
         <v>281</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E188" s="20" t="s">
         <v>552</v>
@@ -33505,7 +33505,7 @@
         <v>282</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E189" s="20" t="s">
         <v>638</v>
@@ -33543,7 +33543,7 @@
         <v>283</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E191" s="20" t="s">
         <v>571</v>
@@ -33561,10 +33561,10 @@
       <c r="A192" s="31"/>
       <c r="B192" s="31"/>
       <c r="C192" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D192" s="49" t="s">
         <v>1116</v>
-      </c>
-      <c r="D192" s="49" t="s">
-        <v>1117</v>
       </c>
       <c r="E192" s="49" t="s">
         <v>132</v>

--- a/execltojava/数据结构.xlsx
+++ b/execltojava/数据结构.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookPassword="D956" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="25960" windowHeight="16800" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1380" yWindow="520" windowWidth="25960" windowHeight="16800" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mall" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="1190">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6525,26 +6525,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>charge_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专栏内容
-column_cotent</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan lan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nei rong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9241,10 +9226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1：图文、2：音频、3：视频、4：直播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1：待发布、2：领取中、3：已领完、4：已完成</t>
     <rPh sb="2" eb="3">
       <t>dai</t>
@@ -9266,6 +9247,51 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>wan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏内容
+column_content</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan lan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：默认、2：图文、3：音频、4：视频、5：直播、6：专栏、7：课程、8：线下活动、9：会员群、10：问答</t>
+    <rPh sb="32" eb="33">
+      <t>ke cheng</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>xian xia</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>huo dong</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>hui yuan qun</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>wen da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：图文、3：音频、4：视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover变为picture</t>
+    <rPh sb="5" eb="6">
+      <t>bian wei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9504,7 +9530,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9648,39 +9674,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -10061,8 +10060,8 @@
   <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10385,7 +10384,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="34"/>
       <c r="K15" s="32" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -10414,7 +10413,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>161</v>
@@ -10430,10 +10429,10 @@
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>980</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>982</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>177</v>
@@ -10455,7 +10454,7 @@
         <v>535</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -10544,13 +10543,13 @@
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>976</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>977</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>979</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -10563,13 +10562,13 @@
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>983</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>984</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>985</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -10577,7 +10576,7 @@
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
       <c r="K25" s="32" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -10716,7 +10715,7 @@
       <c r="I32" s="33"/>
       <c r="J32" s="34"/>
       <c r="K32" s="32" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -10856,10 +10855,10 @@
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
       <c r="C40" s="22" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>30</v>
@@ -10908,7 +10907,7 @@
       <c r="I42" s="33"/>
       <c r="J42" s="34"/>
       <c r="K42" s="32" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -10980,7 +10979,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>38</v>
@@ -10993,7 +10992,7 @@
       <c r="J46" s="21"/>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="1:11" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="38" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="37"/>
       <c r="B47" s="17"/>
       <c r="C47" s="20" t="s">
@@ -11011,7 +11010,7 @@
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="17" t="s">
-        <v>451</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -11112,7 +11111,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
       <c r="K52" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -11162,7 +11161,7 @@
         <v>169</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>13</v>
@@ -11195,23 +11194,23 @@
     </row>
     <row r="57" spans="1:11" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="37"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="56" t="s">
+      <c r="B57" s="37"/>
+      <c r="C57" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="D57" s="62" t="s">
+      <c r="D57" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="E57" s="56" t="s">
+      <c r="E57" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="61" t="s">
-        <v>1174</v>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="17" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -11274,7 +11273,7 @@
     <row r="61" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
       <c r="B61" s="32" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>576</v>
@@ -11508,16 +11507,16 @@
     <row r="73" spans="1:12" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="31"/>
       <c r="B73" s="32" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>151</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -11530,10 +11529,10 @@
       <c r="A74" s="31"/>
       <c r="B74" s="31"/>
       <c r="C74" s="20" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>563</v>
@@ -11596,10 +11595,10 @@
         <v>151</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -11625,11 +11624,11 @@
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
       <c r="J78" s="33"/>
-      <c r="K78" s="61" t="s">
-        <v>1161</v>
+      <c r="K78" s="17" t="s">
+        <v>1159</v>
       </c>
       <c r="L78" s="35" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -11691,201 +11690,201 @@
     </row>
     <row r="82" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
-      <c r="B82" s="58" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C82" s="56" t="s">
+      <c r="B82" s="32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C82" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D82" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="56" t="s">
+      <c r="E82" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="57" t="s">
+      <c r="F82" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="57"/>
-      <c r="J82" s="57"/>
-      <c r="K82" s="58" t="s">
-        <v>1172</v>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="32" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="56" t="s">
+      <c r="B83" s="31"/>
+      <c r="C83" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D83" s="56" t="s">
+      <c r="D83" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="E83" s="56" t="s">
+      <c r="E83" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="57"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="57"/>
-      <c r="K83" s="58"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="32"/>
     </row>
     <row r="84" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="63" t="s">
+      <c r="B84" s="31"/>
+      <c r="C84" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D84" s="63" t="s">
+      <c r="D84" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="E84" s="56" t="s">
-        <v>994</v>
-      </c>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="57"/>
-      <c r="K84" s="58"/>
+      <c r="E84" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="32"/>
     </row>
     <row r="85" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="37"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="56" t="s">
+      <c r="B85" s="37"/>
+      <c r="C85" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D85" s="56" t="s">
+      <c r="D85" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="E85" s="63" t="s">
+      <c r="E85" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="60"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="61"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="17"/>
     </row>
     <row r="86" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="37"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="56" t="s">
+      <c r="B86" s="37"/>
+      <c r="C86" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D86" s="56" t="s">
+      <c r="D86" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="E86" s="63" t="s">
+      <c r="E86" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="61"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="17"/>
     </row>
     <row r="87" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="37"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="56" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D87" s="56" t="s">
+      <c r="B87" s="37"/>
+      <c r="C87" s="20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="E87" s="63" t="s">
+      <c r="E87" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="61"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="17"/>
     </row>
     <row r="88" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="63" t="s">
+      <c r="B88" s="31"/>
+      <c r="C88" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D88" s="56" t="s">
+      <c r="D88" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E88" s="56" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="61" t="s">
-        <v>1173</v>
+      <c r="E88" s="20" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="17" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="31"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="56" t="s">
+      <c r="B89" s="31"/>
+      <c r="C89" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="D89" s="56" t="s">
+      <c r="D89" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="E89" s="56" t="s">
+      <c r="E89" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="57"/>
-      <c r="K89" s="58"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="32"/>
     </row>
     <row r="90" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="31"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="56" t="s">
+      <c r="B90" s="31"/>
+      <c r="C90" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="E90" s="56" t="s">
+      <c r="E90" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="57"/>
-      <c r="J90" s="57"/>
-      <c r="K90" s="58"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="32"/>
     </row>
     <row r="91" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="56" t="s">
+      <c r="B91" s="31"/>
+      <c r="C91" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="56" t="s">
+      <c r="D91" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="E91" s="56" t="s">
+      <c r="E91" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
-      <c r="J91" s="57"/>
-      <c r="K91" s="58"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="32"/>
     </row>
     <row r="92" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
@@ -12151,7 +12150,7 @@
         <v>594</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F104" s="33" t="s">
         <v>38</v>
@@ -12357,7 +12356,7 @@
         <v>594</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F114" s="21" t="s">
         <v>38</v>
@@ -12565,7 +12564,7 @@
         <v>615</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F124" s="33" t="s">
         <v>38</v>
@@ -12895,7 +12894,7 @@
         <v>615</v>
       </c>
       <c r="E140" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -12971,7 +12970,7 @@
       <c r="A144" s="31"/>
       <c r="B144" s="31"/>
       <c r="C144" s="22" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>623</v>
@@ -12994,10 +12993,10 @@
       <c r="A145" s="31"/>
       <c r="B145" s="31"/>
       <c r="C145" s="22" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E145" s="20" t="s">
         <v>563</v>
@@ -13325,10 +13324,10 @@
       <c r="A162" s="31"/>
       <c r="B162" s="31"/>
       <c r="C162" s="20" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E162" s="20" t="s">
         <v>549</v>
@@ -13651,13 +13650,13 @@
     <row r="179" spans="1:12" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="31"/>
       <c r="B179" s="32" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E179" s="20" t="s">
         <v>11</v>
@@ -13678,7 +13677,7 @@
         <v>190</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E180" s="20" t="s">
         <v>11</v>
@@ -13699,7 +13698,7 @@
         <v>461</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E181" s="20" t="s">
         <v>11</v>
@@ -13717,13 +13716,13 @@
       <c r="A182" s="31"/>
       <c r="B182" s="31"/>
       <c r="C182" s="20" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D182" s="20" t="s">
         <v>743</v>
       </c>
       <c r="E182" s="20" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="33"/>
@@ -13750,10 +13749,10 @@
       <c r="I183" s="33"/>
       <c r="J183" s="33"/>
       <c r="K183" s="32" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="L183" s="38" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="184" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -13932,7 +13931,7 @@
   <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
@@ -13997,7 +13996,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
@@ -14050,10 +14049,10 @@
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="20" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>11</v>
@@ -14252,7 +14251,7 @@
         <v>632</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -14271,7 +14270,7 @@
         <v>615</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -14427,7 +14426,7 @@
         <v>632</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -14668,7 +14667,7 @@
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="26" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>155</v>
@@ -14722,7 +14721,7 @@
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
       <c r="K39" s="43" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14802,7 +14801,7 @@
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
       <c r="K43" s="32" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -14850,7 +14849,7 @@
         <v>232</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>162</v>
@@ -14869,7 +14868,7 @@
         <v>62</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>162</v>
@@ -14888,7 +14887,7 @@
         <v>63</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>162</v>
@@ -15026,7 +15025,7 @@
         <v>632</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -15039,7 +15038,7 @@
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="26" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>155</v>
@@ -15096,10 +15095,10 @@
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
       <c r="C59" s="26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D59" s="20" t="s">
         <v>1093</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>1095</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>150</v>
@@ -15115,10 +15114,10 @@
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="26" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>150</v>
@@ -15134,10 +15133,10 @@
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
       <c r="C61" s="26" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>150</v>
@@ -15277,7 +15276,7 @@
         <v>615</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -15328,7 +15327,7 @@
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="26" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>582</v>
@@ -15412,7 +15411,7 @@
         <v>632</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -15425,10 +15424,10 @@
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
       <c r="C76" s="26" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>563</v>
@@ -15587,7 +15586,7 @@
         <v>615</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -15606,7 +15605,7 @@
         <v>632</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -15652,7 +15651,7 @@
       <c r="I87" s="33"/>
       <c r="J87" s="33"/>
       <c r="K87" s="32" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15768,7 +15767,7 @@
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
       <c r="K93" s="32" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15972,9 +15971,9 @@
   </sheetPr>
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16282,7 +16281,7 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="32" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -16295,7 +16294,7 @@
         <v>663</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -16571,7 +16570,7 @@
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
       <c r="K29" s="32" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -16634,7 +16633,7 @@
     <row r="33" spans="1:11" s="35" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="32" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>10</v>
@@ -16662,7 +16661,7 @@
         <v>632</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -16675,10 +16674,10 @@
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="26" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>11</v>
@@ -16694,10 +16693,10 @@
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="26" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>11</v>
@@ -16719,7 +16718,7 @@
         <v>594</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -16732,10 +16731,10 @@
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
       <c r="C38" s="26" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>1084</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>1086</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>150</v>
@@ -17071,7 +17070,7 @@
         <v>663</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
@@ -17181,10 +17180,10 @@
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
       <c r="C61" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D61" s="20" t="s">
         <v>1012</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>1014</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>162</v>
@@ -17313,7 +17312,7 @@
       <c r="I67" s="33"/>
       <c r="J67" s="33"/>
       <c r="K67" s="32" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -17781,16 +17780,16 @@
     <row r="92" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
       <c r="B92" s="32" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -17798,7 +17797,7 @@
       <c r="I92" s="33"/>
       <c r="J92" s="33"/>
       <c r="K92" s="32" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -17811,7 +17810,7 @@
         <v>782</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -17819,20 +17818,20 @@
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
       <c r="K93" s="32" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="31"/>
       <c r="C94" s="26" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -17840,7 +17839,7 @@
       <c r="I94" s="33"/>
       <c r="J94" s="33"/>
       <c r="K94" s="32" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -17853,7 +17852,7 @@
         <v>582</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -17868,13 +17867,13 @@
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
       <c r="C96" s="26" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -17882,20 +17881,20 @@
       <c r="I96" s="33"/>
       <c r="J96" s="33"/>
       <c r="K96" s="32" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31"/>
       <c r="B97" s="31"/>
       <c r="C97" s="26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D97" s="26" t="s">
         <v>1037</v>
       </c>
-      <c r="D97" s="26" t="s">
-        <v>1039</v>
-      </c>
       <c r="E97" s="26" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -17903,20 +17902,20 @@
       <c r="I97" s="33"/>
       <c r="J97" s="33"/>
       <c r="K97" s="32" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="31"/>
       <c r="B98" s="31"/>
       <c r="C98" s="26" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D98" s="26" t="s">
         <v>1038</v>
       </c>
-      <c r="D98" s="26" t="s">
-        <v>1040</v>
-      </c>
       <c r="E98" s="26" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -17924,17 +17923,17 @@
       <c r="I98" s="33"/>
       <c r="J98" s="33"/>
       <c r="K98" s="32" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31"/>
       <c r="B99" s="31"/>
       <c r="C99" s="26" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E99" s="20" t="s">
         <v>11</v>
@@ -17956,7 +17955,7 @@
         <v>632</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -17969,10 +17968,10 @@
       <c r="A101" s="31"/>
       <c r="B101" s="31"/>
       <c r="C101" s="26" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E101" s="26" t="s">
         <v>26</v>
@@ -17983,20 +17982,20 @@
       <c r="I101" s="33"/>
       <c r="J101" s="33"/>
       <c r="K101" s="32" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31"/>
       <c r="B102" s="31"/>
       <c r="C102" s="26" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -18004,17 +18003,17 @@
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
       <c r="K102" s="32" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31"/>
       <c r="B103" s="31"/>
       <c r="C103" s="26" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>11</v>
@@ -18032,13 +18031,13 @@
       <c r="A104" s="31"/>
       <c r="B104" s="31"/>
       <c r="C104" s="26" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E104" s="20" t="s">
         <v>1053</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E104" s="20" t="s">
-        <v>1055</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -18171,8 +18170,8 @@
   <dimension ref="A1:K268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K236" sqref="K236"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18288,7 +18287,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -18328,7 +18327,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="17" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -18349,7 +18348,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="17" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -18393,7 +18392,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="17" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -18414,7 +18413,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -18435,7 +18434,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -18445,7 +18444,7 @@
         <v>326</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>723</v>
@@ -18589,7 +18588,7 @@
         <v>736</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -18852,7 +18851,7 @@
         <v>615</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -18868,10 +18867,10 @@
         <v>304</v>
       </c>
       <c r="D33" s="20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>1007</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>1009</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -18879,7 +18878,7 @@
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -19033,7 +19032,7 @@
         <v>594</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -19225,10 +19224,10 @@
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="22" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>1183</v>
+        <v>1182</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>1181</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>595</v>
@@ -19282,10 +19281,10 @@
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="22" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>595</v>
@@ -19366,7 +19365,7 @@
         <v>594</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -19403,10 +19402,10 @@
         <v>304</v>
       </c>
       <c r="D60" s="20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E60" s="20" t="s">
         <v>1007</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>1009</v>
       </c>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -19414,7 +19413,7 @@
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
       <c r="K60" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -19589,7 +19588,7 @@
         <v>594</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -19879,7 +19878,7 @@
         <v>67</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>595</v>
@@ -19922,7 +19921,7 @@
         <v>766</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -19970,7 +19969,7 @@
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
       <c r="K88" s="32" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -20375,7 +20374,7 @@
         <v>615</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -20469,7 +20468,7 @@
         <v>518</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E114" s="20" t="s">
         <v>132</v>
@@ -20602,13 +20601,13 @@
     <row r="121" spans="1:11" s="50" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="21"/>
       <c r="B121" s="51" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>563</v>
@@ -20617,7 +20616,7 @@
         <v>778</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
@@ -20628,10 +20627,10 @@
       <c r="A122" s="21"/>
       <c r="B122" s="51"/>
       <c r="C122" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>13</v>
@@ -20668,13 +20667,13 @@
       <c r="A124" s="21"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D124" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>1061</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>1063</v>
       </c>
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
@@ -20682,7 +20681,7 @@
       <c r="I124" s="21"/>
       <c r="J124" s="21"/>
       <c r="K124" s="51" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -20730,7 +20729,7 @@
         <v>67</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E127" s="20" t="s">
         <v>563</v>
@@ -20752,7 +20751,7 @@
         <v>184</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
@@ -20760,7 +20759,7 @@
       <c r="I128" s="21"/>
       <c r="J128" s="21"/>
       <c r="K128" s="51" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -21219,13 +21218,13 @@
       <c r="A151" s="31"/>
       <c r="B151" s="32"/>
       <c r="C151" s="20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E151" s="20" t="s">
         <v>1057</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E151" s="20" t="s">
-        <v>1059</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="33"/>
@@ -21233,7 +21232,7 @@
       <c r="I151" s="33"/>
       <c r="J151" s="33"/>
       <c r="K151" s="32" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="152" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -21480,7 +21479,7 @@
         <v>615</v>
       </c>
       <c r="E164" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
@@ -22998,7 +22997,7 @@
         <v>615</v>
       </c>
       <c r="E242" s="20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="33"/>
@@ -23475,9 +23474,9 @@
   </sheetPr>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23654,7 +23653,7 @@
         <v>441</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>568</v>
@@ -23672,13 +23671,13 @@
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="26" t="s">
+        <v>955</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>957</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>959</v>
-      </c>
       <c r="E9" s="20" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
@@ -23694,7 +23693,7 @@
         <v>443</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>635</v>
@@ -23718,7 +23717,7 @@
         <v>615</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -23844,7 +23843,7 @@
     <row r="18" spans="1:11" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>843</v>
+        <v>1185</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>165</v>
@@ -23866,13 +23865,13 @@
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="26" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -23884,7 +23883,7 @@
     <row r="20" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="17" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>576</v>
@@ -23893,7 +23892,7 @@
         <v>576</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>38</v>
@@ -23945,7 +23944,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="17" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -23990,10 +23989,10 @@
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="20" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>549</v>
@@ -24009,10 +24008,10 @@
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="20" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>551</v>
@@ -24028,10 +24027,10 @@
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="20" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E27" s="44" t="s">
         <v>168</v>
@@ -24066,13 +24065,13 @@
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="26" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -24080,7 +24079,7 @@
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
       <c r="K29" s="32" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -24093,7 +24092,7 @@
         <v>825</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -24131,7 +24130,7 @@
         <v>615</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -24180,44 +24179,44 @@
     </row>
     <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="20" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="32" t="s">
         <v>1152</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E35" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="58" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E36" s="56" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="20" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="58" t="s">
-        <v>1154</v>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="32" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -24237,8 +24236,8 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
-      <c r="K37" s="61" t="s">
-        <v>1162</v>
+      <c r="K37" s="17" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -24301,7 +24300,7 @@
     <row r="41" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="30" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>737</v>
@@ -24309,8 +24308,8 @@
       <c r="D41" s="26" t="s">
         <v>737</v>
       </c>
-      <c r="E41" s="68" t="s">
-        <v>1175</v>
+      <c r="E41" s="57" t="s">
+        <v>1173</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
@@ -24326,7 +24325,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>544</v>
@@ -24337,14 +24336,14 @@
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
       <c r="K42" s="30" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="26" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>548</v>
@@ -24363,10 +24362,10 @@
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="26" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>551</v>
@@ -24382,10 +24381,10 @@
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="26" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>544</v>
@@ -24396,20 +24395,20 @@
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
       <c r="K45" s="30" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="26" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
@@ -24459,16 +24458,16 @@
     <row r="49" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="30" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
@@ -24481,13 +24480,13 @@
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="26" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
@@ -24500,10 +24499,10 @@
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="26" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>563</v>
@@ -24525,7 +24524,7 @@
         <v>825</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
@@ -24533,17 +24532,17 @@
       <c r="I52" s="28"/>
       <c r="J52" s="28"/>
       <c r="K52" s="30" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>966</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>968</v>
       </c>
       <c r="E53" s="44" t="s">
         <v>168</v>
@@ -24596,7 +24595,7 @@
     <row r="56" spans="1:11" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="B56" s="32" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>576</v>
@@ -24658,10 +24657,10 @@
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
       <c r="C59" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>840</v>
+        <v>142</v>
+      </c>
+      <c r="D59" s="56" t="s">
+        <v>1188</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>551</v>
@@ -24671,7 +24670,9 @@
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
       <c r="J59" s="33"/>
-      <c r="K59" s="32"/>
+      <c r="K59" s="55" t="s">
+        <v>1189</v>
+      </c>
     </row>
     <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
@@ -24718,7 +24719,7 @@
         <v>441</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>568</v>
@@ -24736,13 +24737,13 @@
       <c r="A63" s="31"/>
       <c r="B63" s="31"/>
       <c r="C63" s="26" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>784</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -24761,7 +24762,7 @@
         <v>594</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -24887,13 +24888,13 @@
     <row r="71" spans="1:11" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D71" s="26" t="s">
         <v>1017</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>1019</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>11</v>
@@ -24909,13 +24910,13 @@
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="26" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -25494,7 +25495,7 @@
         <v>339</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E102" s="20" t="s">
         <v>563</v>
@@ -26057,7 +26058,7 @@
         <v>360</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E131" s="20" t="s">
         <v>563</v>
@@ -26288,8 +26289,8 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26409,7 +26410,7 @@
         <v>169</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>13</v>
@@ -26552,7 +26553,7 @@
         <v>171</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>544</v>
@@ -26573,7 +26574,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>610</v>
@@ -26592,7 +26593,7 @@
         <v>169</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>547</v>
@@ -26758,7 +26759,7 @@
         <v>173</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>599</v>
@@ -26777,7 +26778,7 @@
         <v>174</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>544</v>
@@ -26798,7 +26799,7 @@
         <v>494</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>544</v>
@@ -26838,7 +26839,7 @@
         <v>448</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>544</v>
@@ -26859,7 +26860,7 @@
         <v>447</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>544</v>
@@ -26880,7 +26881,7 @@
         <v>529</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>595</v>
@@ -26899,7 +26900,7 @@
         <v>169</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>547</v>
@@ -26920,7 +26921,7 @@
         <v>495</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>595</v>
@@ -27059,7 +27060,7 @@
         <v>169</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>547</v>
@@ -27171,7 +27172,7 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="17" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -27221,7 +27222,7 @@
         <v>34</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>610</v>
@@ -27240,7 +27241,7 @@
         <v>169</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>13</v>
@@ -27352,7 +27353,7 @@
     <row r="52" spans="1:11" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="32" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>597</v>
@@ -27369,7 +27370,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
       <c r="K52" s="17" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -27419,7 +27420,7 @@
         <v>34</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>610</v>
@@ -27438,7 +27439,7 @@
         <v>107</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>595</v>
@@ -27457,7 +27458,7 @@
         <v>169</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>13</v>
@@ -27568,183 +27569,183 @@
     </row>
     <row r="63" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
-      <c r="B63" s="64" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C63" s="65" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D63" s="56" t="s">
+      <c r="B63" s="30" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D63" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="E63" s="56" t="s">
+      <c r="E63" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="64"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="30"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="65" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D64" s="65" t="s">
+      <c r="B64" s="39"/>
+      <c r="C64" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D64" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E64" s="56" t="s">
+      <c r="E64" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="64"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="30"/>
     </row>
     <row r="65" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="39"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="65" t="s">
+      <c r="B65" s="39"/>
+      <c r="C65" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="65" t="s">
+      <c r="D65" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="56" t="s">
+      <c r="E65" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="64" t="s">
-        <v>1171</v>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="30" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="39"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="65" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D66" s="65" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E66" s="56" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="64"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="26" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="30"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="39"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="65" t="s">
+      <c r="B67" s="39"/>
+      <c r="C67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="65" t="s">
-        <v>855</v>
-      </c>
-      <c r="E67" s="56" t="s">
+      <c r="D67" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="E67" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="64"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="30"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="39"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="65" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D68" s="56" t="s">
+      <c r="B68" s="39"/>
+      <c r="C68" s="26" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D68" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="56" t="s">
+      <c r="E68" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="64"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="30"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="39"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="65" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D69" s="56" t="s">
+      <c r="B69" s="39"/>
+      <c r="C69" s="26" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D69" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="E69" s="56" t="s">
+      <c r="E69" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="64"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="30"/>
     </row>
     <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="5"/>
       <c r="D70" s="20"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="4"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="17"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="14" t="s">
-        <v>868</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="4"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="17"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="14" t="s">
+      <c r="B72" s="37"/>
+      <c r="C72" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="4"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="17"/>
     </row>
     <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C73" s="19"/>
@@ -27970,7 +27971,7 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -28029,13 +28030,13 @@
         <v>117</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
@@ -28051,10 +28052,10 @@
         <v>98</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -28070,10 +28071,10 @@
         <v>91</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
@@ -28091,10 +28092,10 @@
         <v>92</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -28112,10 +28113,10 @@
         <v>94</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -28131,7 +28132,7 @@
         <v>95</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>96</v>
@@ -28150,10 +28151,10 @@
         <v>97</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
@@ -28168,13 +28169,13 @@
         <v>52</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>38</v>
@@ -28213,7 +28214,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>549</v>
@@ -28443,7 +28444,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
       <c r="K22" s="32" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -28495,7 +28496,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>584</v>
@@ -28552,7 +28553,7 @@
         <v>109</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>563</v>
@@ -28601,7 +28602,7 @@
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
       <c r="K30" s="32" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -28670,7 +28671,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>563</v>
@@ -28693,7 +28694,7 @@
         <v>119</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>595</v>
@@ -28718,7 +28719,7 @@
         <v>68</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>595</v>
@@ -28741,7 +28742,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>595</v>
@@ -28760,13 +28761,13 @@
     <row r="38" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="32" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>595</v>
@@ -28792,7 +28793,7 @@
         <v>594</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>38</v>
@@ -28808,13 +28809,13 @@
     <row r="40" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="32" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>595</v>
@@ -28834,10 +28835,10 @@
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="20" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>595</v>
@@ -28885,7 +28886,7 @@
         <v>68</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>595</v>
@@ -28904,7 +28905,7 @@
         <v>121</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>595</v>
@@ -28923,7 +28924,7 @@
         <v>525</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>595</v>
@@ -28942,7 +28943,7 @@
         <v>528</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>595</v>
@@ -28961,7 +28962,7 @@
         <v>122</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>610</v>
@@ -29024,7 +29025,7 @@
         <v>68</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>595</v>
@@ -29043,7 +29044,7 @@
         <v>121</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>595</v>
@@ -29062,7 +29063,7 @@
         <v>525</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>595</v>
@@ -29081,7 +29082,7 @@
         <v>528</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>595</v>
@@ -29100,7 +29101,7 @@
         <v>122</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>610</v>
@@ -29203,7 +29204,7 @@
         <v>59</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>544</v>
@@ -29224,7 +29225,7 @@
         <v>60</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>749</v>
@@ -29262,7 +29263,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>599</v>
@@ -29281,7 +29282,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>549</v>
@@ -29300,7 +29301,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>549</v>
@@ -29319,7 +29320,7 @@
         <v>67</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>563</v>
@@ -29410,7 +29411,7 @@
     <row r="70" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="31"/>
       <c r="B70" s="32" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>576</v>
@@ -29435,7 +29436,7 @@
         <v>471</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>549</v>
@@ -29475,10 +29476,10 @@
         <v>470</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -29513,7 +29514,7 @@
         <v>474</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>549</v>
@@ -29532,7 +29533,7 @@
         <v>473</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>635</v>
@@ -29551,7 +29552,7 @@
         <v>475</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>635</v>
@@ -29570,7 +29571,7 @@
         <v>61</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>549</v>
@@ -29589,7 +29590,7 @@
         <v>62</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>549</v>
@@ -29608,7 +29609,7 @@
         <v>63</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>549</v>
@@ -29627,7 +29628,7 @@
         <v>526</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>563</v>
@@ -29741,7 +29742,7 @@
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
       <c r="K86" s="32" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -29767,10 +29768,10 @@
       <c r="A88" s="31"/>
       <c r="B88" s="31"/>
       <c r="C88" s="22" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>544</v>
@@ -29781,7 +29782,7 @@
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
       <c r="K88" s="32" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -29791,7 +29792,7 @@
         <v>87</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>11</v>
@@ -29802,7 +29803,7 @@
       <c r="I89" s="33"/>
       <c r="J89" s="33"/>
       <c r="K89" s="32" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -30180,7 +30181,7 @@
   <dimension ref="A1:K198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -30260,13 +30261,13 @@
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -30285,7 +30286,7 @@
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>548</v>
@@ -30304,10 +30305,10 @@
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>568</v>
@@ -30325,10 +30326,10 @@
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>584</v>
@@ -30344,10 +30345,10 @@
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>657</v>
@@ -30366,7 +30367,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>568</v>
@@ -30384,10 +30385,10 @@
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>635</v>
@@ -30403,10 +30404,10 @@
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>568</v>
@@ -30422,10 +30423,10 @@
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="20" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>549</v>
@@ -30441,10 +30442,10 @@
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="20" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>549</v>
@@ -30460,10 +30461,10 @@
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="20" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>549</v>
@@ -30479,7 +30480,7 @@
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="20" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>831</v>
@@ -30512,7 +30513,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="25"/>
       <c r="K15" s="17" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -30575,13 +30576,13 @@
     <row r="19" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="17" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>595</v>
@@ -30604,7 +30605,7 @@
         <v>511</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>595</v>
@@ -30673,7 +30674,7 @@
         <v>459</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>635</v>
@@ -30691,10 +30692,10 @@
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="20" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>549</v>
@@ -30710,10 +30711,10 @@
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="20" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>549</v>
@@ -30729,10 +30730,10 @@
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="20" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>549</v>
@@ -30751,7 +30752,7 @@
         <v>80</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>568</v>
@@ -30772,7 +30773,7 @@
         <v>67</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>563</v>
@@ -30909,7 +30910,7 @@
       </c>
       <c r="J34" s="33"/>
       <c r="K34" s="32" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -30938,7 +30939,7 @@
         <v>86</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>549</v>
@@ -30957,7 +30958,7 @@
         <v>88</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>551</v>
@@ -30976,10 +30977,10 @@
         <v>59</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -30994,10 +30995,10 @@
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
       <c r="C39" s="20" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>549</v>
@@ -31013,10 +31014,10 @@
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
       <c r="C40" s="20" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>549</v>
@@ -31032,13 +31033,13 @@
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -31051,13 +31052,13 @@
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="22" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D42" s="22" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>1025</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>1027</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -31073,7 +31074,7 @@
         <v>87</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>563</v>
@@ -31088,7 +31089,7 @@
       </c>
       <c r="J43" s="33"/>
       <c r="K43" s="32" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -31098,7 +31099,7 @@
         <v>80</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>568</v>
@@ -31119,7 +31120,7 @@
         <v>67</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>11</v>
@@ -31241,7 +31242,7 @@
         <v>428</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>563</v>
@@ -31292,7 +31293,7 @@
       <c r="I53" s="33"/>
       <c r="J53" s="33"/>
       <c r="K53" s="32" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -31302,7 +31303,7 @@
         <v>87</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>563</v>
@@ -31313,7 +31314,7 @@
       <c r="I54" s="33"/>
       <c r="J54" s="33"/>
       <c r="K54" s="32" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -31363,7 +31364,7 @@
         <v>569</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>571</v>
@@ -31466,7 +31467,7 @@
         <v>80</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E62" s="22" t="s">
         <v>568</v>
@@ -31487,7 +31488,7 @@
         <v>67</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>11</v>
@@ -31651,7 +31652,7 @@
         <v>86</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>549</v>
@@ -31670,7 +31671,7 @@
         <v>88</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>551</v>
@@ -31689,7 +31690,7 @@
         <v>87</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>11</v>
@@ -31712,7 +31713,7 @@
         <v>80</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E74" s="22" t="s">
         <v>568</v>
@@ -31730,10 +31731,10 @@
       <c r="A75" s="31"/>
       <c r="B75" s="31"/>
       <c r="C75" s="20" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E75" s="49" t="s">
         <v>132</v>
@@ -31855,7 +31856,7 @@
         <v>484</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>563</v>
@@ -31916,7 +31917,7 @@
         <v>87</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>563</v>
@@ -32074,7 +32075,7 @@
         <v>86</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>549</v>
@@ -32205,10 +32206,10 @@
     <row r="99" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="31"/>
       <c r="B99" s="32" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>154</v>
@@ -32246,10 +32247,10 @@
       <c r="A101" s="31"/>
       <c r="B101" s="31"/>
       <c r="C101" s="20" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>11</v>
@@ -32281,7 +32282,7 @@
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
       <c r="K102" s="32" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -32344,7 +32345,7 @@
     <row r="106" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="31"/>
       <c r="B106" s="32" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C106" s="22" t="s">
         <v>148</v>
@@ -32361,7 +32362,7 @@
       <c r="I106" s="33"/>
       <c r="J106" s="33"/>
       <c r="K106" s="32" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -32371,7 +32372,7 @@
         <v>457</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E107" s="20" t="s">
         <v>563</v>
@@ -32386,13 +32387,13 @@
     <row r="108" spans="1:11" s="35" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="31"/>
       <c r="B108" s="32" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>190</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>11</v>
@@ -32410,10 +32411,10 @@
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="22" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>1145</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>1147</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>11</v>
@@ -32431,10 +32432,10 @@
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
       <c r="C110" s="22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>1144</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>1146</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>11</v>
@@ -32492,7 +32493,7 @@
       <c r="A113" s="31"/>
       <c r="B113" s="31"/>
       <c r="C113" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D113" s="20" t="s">
         <v>579</v>
@@ -32533,10 +32534,10 @@
         <v>78</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -32554,7 +32555,7 @@
         <v>74</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E116" s="20" t="s">
         <v>549</v>
@@ -32573,7 +32574,7 @@
         <v>75</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>635</v>
@@ -32592,7 +32593,7 @@
         <v>462</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E118" s="36" t="s">
         <v>161</v>
@@ -32611,7 +32612,7 @@
         <v>463</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E119" s="22" t="s">
         <v>635</v>
@@ -32630,7 +32631,7 @@
         <v>61</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>549</v>
@@ -32649,7 +32650,7 @@
         <v>62</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>549</v>
@@ -32668,7 +32669,7 @@
         <v>63</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>549</v>
@@ -32706,10 +32707,10 @@
         <v>76</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -32728,7 +32729,7 @@
         <v>834</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -32841,7 +32842,7 @@
         <v>471</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E131" s="20" t="s">
         <v>549</v>
@@ -32881,10 +32882,10 @@
         <v>470</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -32919,7 +32920,7 @@
         <v>474</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E135" s="20" t="s">
         <v>549</v>
@@ -32938,7 +32939,7 @@
         <v>473</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E136" s="20" t="s">
         <v>635</v>
@@ -32957,7 +32958,7 @@
         <v>475</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>635</v>
@@ -32976,7 +32977,7 @@
         <v>61</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E138" s="26" t="s">
         <v>549</v>
@@ -32994,7 +32995,7 @@
         <v>62</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E139" s="20" t="s">
         <v>549</v>
@@ -33012,7 +33013,7 @@
         <v>63</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E140" s="20" t="s">
         <v>549</v>
@@ -33119,7 +33120,7 @@
     <row r="146" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="31"/>
       <c r="B146" s="32" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>487</v>
@@ -33143,10 +33144,10 @@
       <c r="A147" s="31"/>
       <c r="B147" s="32"/>
       <c r="C147" s="20" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D147" s="49" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E147" s="49" t="s">
         <v>132</v>
@@ -33170,7 +33171,7 @@
         <v>615</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -33205,7 +33206,7 @@
     <row r="150" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="31"/>
       <c r="B150" s="32" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>487</v>
@@ -33229,10 +33230,10 @@
       <c r="A151" s="31"/>
       <c r="B151" s="32"/>
       <c r="C151" s="20" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D151" s="49" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E151" s="49" t="s">
         <v>132</v>
@@ -33256,7 +33257,7 @@
         <v>615</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
@@ -33329,13 +33330,13 @@
     <row r="156" spans="1:11" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="31"/>
       <c r="B156" s="32" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D156" s="49" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E156" s="49" t="s">
         <v>132</v>
@@ -33359,7 +33360,7 @@
         <v>615</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
@@ -33393,10 +33394,10 @@
       <c r="A159" s="31"/>
       <c r="B159" s="31"/>
       <c r="C159" s="20" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D159" s="49" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E159" s="49" t="s">
         <v>132</v>
@@ -33453,7 +33454,7 @@
         <v>260</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E162" s="26" t="s">
         <v>635</v>
@@ -33565,7 +33566,7 @@
     <row r="168" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="31"/>
       <c r="B168" s="32" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>576</v>
@@ -33587,10 +33588,10 @@
       <c r="A169" s="31"/>
       <c r="B169" s="31"/>
       <c r="C169" s="20" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D169" s="49" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E169" s="49" t="s">
         <v>132</v>
@@ -33609,7 +33610,7 @@
         <v>270</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E170" s="26" t="s">
         <v>553</v>
@@ -33781,10 +33782,10 @@
       <c r="A179" s="31"/>
       <c r="B179" s="31"/>
       <c r="C179" s="20" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D179" s="49" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E179" s="49" t="s">
         <v>132</v>
@@ -33803,7 +33804,7 @@
         <v>503</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E180" s="20" t="s">
         <v>559</v>
@@ -33896,7 +33897,7 @@
     <row r="185" spans="1:11" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="31"/>
       <c r="B185" s="32" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C185" s="20" t="s">
         <v>576</v>
@@ -33921,7 +33922,7 @@
         <v>282</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E186" s="20" t="s">
         <v>549</v>
@@ -33940,7 +33941,7 @@
         <v>278</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E187" s="20" t="s">
         <v>635</v>
@@ -33959,7 +33960,7 @@
         <v>279</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E188" s="20" t="s">
         <v>549</v>
@@ -33978,7 +33979,7 @@
         <v>280</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E189" s="20" t="s">
         <v>635</v>
@@ -34016,7 +34017,7 @@
         <v>281</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E191" s="20" t="s">
         <v>568</v>
@@ -34034,10 +34035,10 @@
       <c r="A192" s="31"/>
       <c r="B192" s="31"/>
       <c r="C192" s="20" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D192" s="49" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E192" s="49" t="s">
         <v>132</v>
@@ -34168,8 +34169,8 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
